--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="06DCE2DC504AABB48E557451A2596931409E6D38" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{C551DC3D-0A7A-46A4-A54A-5505F6246D00}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AEA8729-1D2D-4DDD-BC54-213FC074B6FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -53,12 +53,18 @@
   <si>
     <t>Protokoll - Klaassen</t>
   </si>
+  <si>
+    <t>Erste Besprechung und Plaung</t>
+  </si>
+  <si>
+    <t>Einlesung in die Programmierung von Alexa und Installation des Programms für EV3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -748,6 +754,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1066,11 +1075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1079,13 +1088,13 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1096,109 +1105,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="C6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="38">
-        <f>SUM(D6:D21)</f>
-        <v>0</v>
+        <f>SUM(D6:D18)</f>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -1211,30 +1228,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1245,96 +1262,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
@@ -1350,30 +1367,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1384,103 +1401,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>4</v>
       </c>
@@ -1498,30 +1515,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="45">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1532,96 +1549,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="50">
         <v>24</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AEA8729-1D2D-4DDD-BC54-213FC074B6FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="06DCE2DC504AABB48E557451A2596931409E6D38" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E59AA1DA-7246-4F3A-A146-0F464A9E45A5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -42,29 +42,44 @@
     <t>Studnenanzahl</t>
   </si>
   <si>
+    <t>Besprechung, Einrichtung v. GitHub</t>
+  </si>
+  <si>
+    <t>Recherche, Einrichten der Umgebung</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Erstellung erster Skill</t>
+  </si>
+  <si>
     <t>SUMME:</t>
   </si>
   <si>
     <t>Protokoll - Dittmann</t>
   </si>
   <si>
+    <t>Recherche, Konstruktion</t>
+  </si>
+  <si>
     <t>Protokoll - Potesil</t>
+  </si>
+  <si>
+    <t>Protokollierung, Recherche</t>
   </si>
   <si>
     <t>Protokoll - Klaassen</t>
   </si>
   <si>
-    <t>Erste Besprechung und Plaung</t>
-  </si>
-  <si>
-    <t>Einlesung in die Programmierung von Alexa und Installation des Programms für EV3</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -754,9 +769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1075,11 +1087,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1088,13 +1100,13 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1105,117 +1117,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="6">
         <v>12</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>8</v>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>13</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>14</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="C23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="38">
+        <f>SUM(D6:D21)</f>
         <v>4</v>
-      </c>
-      <c r="D23" s="38">
-        <f>SUM(D6:D18)</f>
-        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -1226,32 +1242,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1262,101 +1278,118 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="38">
+        <f>SUM(D7:D19)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,30 +1400,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1401,109 +1434,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="22">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="22">
         <v>13</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="22">
         <v>14</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="C24" s="37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1513,32 +1554,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="45">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1549,101 +1590,118 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D6:D21)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AEA8729-1D2D-4DDD-BC54-213FC074B6FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83748424-19B3-496F-B677-252BF7300451}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Einlesung in die Programmierung von Alexa und Installation des Programms für EV3</t>
+  </si>
+  <si>
+    <t>Erste Schritte mit Skills für Alexa</t>
   </si>
 </sst>
 </file>
@@ -1076,25 +1079,25 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1105,12 +1108,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1118,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1132,90 +1135,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>14</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D18)</f>
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1232,26 +1239,26 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1262,96 +1269,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>24</v>
       </c>
@@ -1371,26 +1378,26 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1401,103 +1408,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>13</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>14</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="37" t="s">
         <v>4</v>
       </c>
@@ -1519,26 +1526,26 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1549,96 +1556,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="50">
         <v>24</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83748424-19B3-496F-B677-252BF7300451}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="06DCE2DC504AABB48E557451A2596931409E6D38" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E7FDFC13-572A-4862-BA32-C4A3A1FA932E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -42,32 +42,53 @@
     <t>Studnenanzahl</t>
   </si>
   <si>
+    <t>Besprechung, Einrichtung v. GitHub</t>
+  </si>
+  <si>
+    <t>Recherche, Einrichten der Umgebung</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Erstellung erster Skill, Besprechung zur Implementierung v. Skills</t>
+  </si>
+  <si>
     <t>SUMME:</t>
   </si>
   <si>
     <t>Protokoll - Dittmann</t>
   </si>
   <si>
+    <t>Recherche, Konstruktion</t>
+  </si>
+  <si>
+    <t>Besprechung zur Implementierung v. Skills, Recherche</t>
+  </si>
+  <si>
     <t>Protokoll - Potesil</t>
+  </si>
+  <si>
+    <t>Protokollierung, Recherche</t>
+  </si>
+  <si>
+    <t>Protokollierung, Erstellung Protokoll, Besprechung zur Implementierung v. Skills</t>
   </si>
   <si>
     <t>Protokoll - Klaassen</t>
   </si>
   <si>
-    <t>Erste Besprechung und Plaung</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Einlesung in die Programmierung von Alexa und Installation des Programms für EV3</t>
-  </si>
-  <si>
-    <t>Erste Schritte mit Skills für Alexa</t>
+    <t>Besprechung zur Implementierung v. Skills</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -757,9 +778,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1078,26 +1096,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1108,121 +1126,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="6">
         <v>12</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>8</v>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>13</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30">
       <c r="B8" s="6">
         <v>14</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="C23" s="37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="38">
-        <f>SUM(D6:D18)</f>
-        <v>8</v>
+        <f>SUM(D6:D21)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1233,32 +1251,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1269,101 +1287,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="6">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="38">
+        <f>SUM(D7:D21)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,30 +1413,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1408,109 +1447,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="22">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="22">
         <v>13</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="45">
       <c r="B9" s="22">
         <v>14</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="C24" s="37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1520,32 +1571,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="45">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1556,101 +1607,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="6">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D6:D21)</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dokumente\[Meine Dokumente]\[Schule]\FH\[Lehrveranstaltungen]\WS1\ITP\FHTW Robotics Challenge 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="06DCE2DC504AABB48E557451A2596931409E6D38" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E7FDFC13-572A-4862-BA32-C4A3A1FA932E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDFCC278-2AD1-46A4-A13A-F498E1A4789C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>Besprechung zur Implementierung v. Skills</t>
+  </si>
+  <si>
+    <t>Verbindung AWS mit Amazon Dev. + erste Befehlstests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,7 +801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1096,11 +1099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1109,13 +1112,13 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1126,12 +1129,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1164,77 +1167,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
@@ -1253,30 +1256,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1287,12 +1290,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1325,83 +1328,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1413,30 +1420,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1447,12 +1454,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1485,77 +1492,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>8</v>
       </c>
@@ -1573,30 +1580,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="45">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1607,12 +1614,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1634,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1645,77 +1652,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>8</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDFCC278-2AD1-46A4-A13A-F498E1A4789C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD0028E2-989B-47DA-9AB4-2D3C2428A406}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -1099,26 +1099,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1129,12 +1129,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1167,83 +1167,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>15</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1256,30 +1260,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1290,12 +1294,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1339,70 +1343,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
@@ -1424,26 +1428,26 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1454,12 +1458,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1492,77 +1496,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="37" t="s">
         <v>8</v>
       </c>
@@ -1584,26 +1588,26 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1614,12 +1618,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1652,77 +1656,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>8</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD0028E2-989B-47DA-9AB4-2D3C2428A406}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E39BAC5-FC7B-4EEF-ADEF-133E24DC160E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Verbindung AWS mit Amazon Dev. + erste Befehlstests</t>
+  </si>
+  <si>
+    <t>Stundenanzahl</t>
+  </si>
+  <si>
+    <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
   </si>
 </sst>
 </file>
@@ -1099,26 +1105,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1129,12 +1135,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1178,70 +1184,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
@@ -1260,30 +1266,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1291,15 +1297,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1343,76 +1349,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -1428,26 +1438,26 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1458,12 +1468,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1485,7 +1495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1496,77 +1506,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>8</v>
       </c>
@@ -1588,26 +1598,26 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1618,12 +1628,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1645,7 +1655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1656,77 +1666,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>8</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E39BAC5-FC7B-4EEF-ADEF-133E24DC160E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68553375-4841-414D-AC1A-3780BB6FF487}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
+  </si>
+  <si>
+    <t>Alexa Skills erstellt nach der zur Verfügung gestellten Anleitung</t>
   </si>
 </sst>
 </file>
@@ -1105,26 +1108,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1135,12 +1138,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1184,76 +1187,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1266,30 +1273,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1300,12 +1307,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1316,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1360,63 +1367,63 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
@@ -1438,26 +1445,26 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1468,12 +1475,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1506,77 +1513,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="37" t="s">
         <v>8</v>
       </c>
@@ -1598,26 +1605,26 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1628,12 +1635,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1666,77 +1673,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>8</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68553375-4841-414D-AC1A-3780BB6FF487}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD3E5909-A4D8-4707-A723-D1181FB31A5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
   </si>
   <si>
-    <t>Alexa Skills erstellt nach der zur Verfügung gestellten Anleitung</t>
+    <t>Alexa Skill erstellt nach der zur Verfügung gestellten Anleitung, beschäftigt mit SQS und SNS für die Übertragung</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD3E5909-A4D8-4707-A723-D1181FB31A5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="10_ncr:100000_{AD3E5909-A4D8-4707-A723-D1181FB31A5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{7667B47E-7424-4824-B05A-1C9188B89FA0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Alexa Skill erstellt nach der zur Verfügung gestellten Anleitung, beschäftigt mit SQS und SNS für die Übertragung</t>
+  </si>
+  <si>
+    <t>Recherche: Alexa Skills, AWS, EV3</t>
+  </si>
+  <si>
+    <t>EV3 Programmierung mit RobotC (erstes Programm)</t>
   </si>
 </sst>
 </file>
@@ -794,7 +800,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,7 +816,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1108,26 +1114,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="37.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1138,12 +1144,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1198,63 +1204,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
@@ -1274,29 +1280,29 @@
   <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1307,12 +1313,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1367,63 +1373,63 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
@@ -1445,26 +1451,26 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1475,12 +1481,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1513,77 +1519,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="22">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="22">
         <v>17</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" s="37" t="s">
         <v>8</v>
       </c>
@@ -1601,30 +1607,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1632,15 +1638,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1673,83 +1679,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E39BAC5-FC7B-4EEF-ADEF-133E24DC160E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{227F898C-F346-473A-8409-784A4F695C30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
+  </si>
+  <si>
+    <t>Dokumentation über AWS schreiben</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
   <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,15 +1360,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="8">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -1422,7 +1429,7 @@
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7A1F9FC-8A06-42F6-808D-4F796A189EC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{49AD2868-5341-4A23-8EAE-624854E0D1FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
+  </si>
+  <si>
+    <t>Dokumentation AWS</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
   <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,15 +1360,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="8">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
@@ -1422,7 +1429,7 @@
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{49AD2868-5341-4A23-8EAE-624854E0D1FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{EF04DC49-5110-4859-A16B-F403A02F0CA7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -54,18 +54,33 @@
     <t>Erstellung erster Skill, Besprechung zur Implementierung v. Skills</t>
   </si>
   <si>
+    <t>Verbindung AWS mit Amazon Dev. + erste Befehlstests</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Skills, Auseinandersetzung mit SNS und SQS</t>
+  </si>
+  <si>
     <t>SUMME:</t>
   </si>
   <si>
     <t>Protokoll - Dittmann</t>
   </si>
   <si>
+    <t>Stundenanzahl</t>
+  </si>
+  <si>
     <t>Recherche, Konstruktion</t>
   </si>
   <si>
     <t>Besprechung zur Implementierung v. Skills, Recherche</t>
   </si>
   <si>
+    <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
+  </si>
+  <si>
+    <t>Dokumentation AWS</t>
+  </si>
+  <si>
     <t>Protokoll - Potesil</t>
   </si>
   <si>
@@ -75,6 +90,12 @@
     <t>Protokollierung, Erstellung Protokoll, Besprechung zur Implementierung v. Skills</t>
   </si>
   <si>
+    <t>Recherce nach einer geeigneten Programmierumgebung und Implementation für EV3</t>
+  </si>
+  <si>
+    <t>Aufbesserung der Dokumente</t>
+  </si>
+  <si>
     <t>Protokoll - Klaassen</t>
   </si>
   <si>
@@ -82,25 +103,13 @@
   </si>
   <si>
     <t>Besprechung zur Implementierung v. Skills</t>
-  </si>
-  <si>
-    <t>Verbindung AWS mit Amazon Dev. + erste Befehlstests</t>
-  </si>
-  <si>
-    <t>Stundenanzahl</t>
-  </si>
-  <si>
-    <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
-  </si>
-  <si>
-    <t>Dokumentation AWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,7 +819,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1108,11 +1117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1121,13 +1130,13 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1138,12 +1147,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1176,87 +1185,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="6">
         <v>15</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30">
       <c r="B10" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>17</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="C23" s="37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1269,30 +1282,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1300,15 +1313,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1319,113 +1332,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="C23" s="37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
@@ -1441,30 +1454,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1475,12 +1488,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1491,105 +1504,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="22">
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="45">
       <c r="B9" s="22">
         <v>14</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45">
       <c r="B10" s="22">
         <v>15</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="22">
         <v>17</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="C24" s="37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1601,30 +1622,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1635,12 +1656,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1651,101 +1672,101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="C23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{EF04DC49-5110-4859-A16B-F403A02F0CA7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{F360131B-DA7F-451B-BC99-BE06C1127FC6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Fertigstellung der Skills, Auseinandersetzung mit SNS und SQS</t>
   </si>
   <si>
+    <t>Dokumentation Skills-Anleitung</t>
+  </si>
+  <si>
     <t>SUMME:</t>
   </si>
   <si>
@@ -99,10 +102,22 @@
     <t>Protokoll - Klaassen</t>
   </si>
   <si>
+    <t>Recherche AWS, Konstruktion</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>Besprechung zur Implementierung v. Skills</t>
+  </si>
+  <si>
+    <t>Recherche EV3-Programmierung</t>
+  </si>
+  <si>
+    <t>Erstellung erstes EV3-Programm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche EV3-Dev </t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1133,7 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1211,8 +1226,12 @@
       <c r="B11" s="6">
         <v>17</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="32">
@@ -1265,11 +1284,11 @@
     </row>
     <row r="23" spans="2:4">
       <c r="C23" s="37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1315,7 @@
     <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1313,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1337,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
@@ -1348,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -1370,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8">
         <v>3.5</v>
@@ -1381,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8">
         <v>4</v>
@@ -1438,7 +1457,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="C23" s="37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
@@ -1454,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1468,7 +1487,7 @@
     <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1509,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>6</v>
@@ -1520,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="25">
         <v>5</v>
@@ -1531,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="25">
         <v>3</v>
@@ -1549,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="25">
         <v>4</v>
@@ -1606,7 +1625,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="C24" s="37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
@@ -1622,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1636,7 +1655,7 @@
     <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1677,10 +1696,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30">
@@ -1688,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -1698,22 +1717,34 @@
       <c r="B10" s="6">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6">
@@ -1766,11 +1797,11 @@
     </row>
     <row r="23" spans="2:4">
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{F360131B-DA7F-451B-BC99-BE06C1127FC6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{9667A41F-36BB-428A-8294-2436C7B6D3A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{A9951F7E-EF17-4612-9D7E-5E6F081F5913}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,14 +117,14 @@
     <t>Erstellung erstes EV3-Programm</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche EV3-Dev </t>
+    <t>Recherche EV3-Dev + Dokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,7 +818,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,26 +1132,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1162,12 +1162,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1233,56 +1233,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1301,30 +1301,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1335,12 +1335,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1406,56 +1406,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1473,30 +1473,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1507,12 +1507,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45">
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1556,14 +1556,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1574,56 +1574,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1641,30 +1641,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1735,73 +1735,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{F360131B-DA7F-451B-BC99-BE06C1127FC6}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{F360131B-DA7F-451B-BC99-BE06C1127FC6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1132,11 +1132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1145,13 +1145,13 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1162,12 +1162,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1233,56 +1233,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1301,30 +1301,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1335,12 +1335,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1406,56 +1406,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1473,30 +1473,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1507,12 +1507,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1556,14 +1556,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1574,56 +1574,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1641,30 +1641,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1746,56 +1746,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="5_{6967EDCB-04E6-4AA0-9FEF-92690A217876}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{F360131B-DA7F-451B-BC99-BE06C1127FC6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF7BE718-BF50-4674-93E7-C6FC39B5CFB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">Recherche EV3-Dev </t>
+  </si>
+  <si>
+    <t>Review - Ouroboros</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,8 +1413,12 @@
       <c r="B13" s="6">
         <v>18</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
@@ -1461,7 +1468,7 @@
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF7BE718-BF50-4674-93E7-C6FC39B5CFB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{07966A21-D58C-4113-B183-F3A4EF288D1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{6834E6E7-8107-42A8-BA23-88F514E65183}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Review - Ouroboros</t>
+  </si>
+  <si>
+    <t>Peer Review + EV3-Dev installation</t>
+  </si>
+  <si>
+    <t>EV3-Dev Troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -813,15 +819,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -837,7 +843,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1139,22 +1145,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1165,12 +1171,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1236,56 +1242,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1304,30 +1310,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1338,12 +1344,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1420,49 +1426,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1484,26 +1490,26 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1514,12 +1520,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1563,14 +1569,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1581,56 +1587,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1648,30 +1654,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1682,12 +1688,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1753,62 +1759,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="6_{07966A21-D58C-4113-B183-F3A4EF288D1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{6834E6E7-8107-42A8-BA23-88F514E65183}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="6_{07966A21-D58C-4113-B183-F3A4EF288D1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{A44B93A7-8A34-4FFA-8112-0D950D5A80A1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Recherche AWS, Konstruktion</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Besprechung zur Implementierung v. Skills</t>
   </si>
   <si>
@@ -126,7 +123,7 @@
     <t>Peer Review + EV3-Dev installation</t>
   </si>
   <si>
-    <t>EV3-Dev Troubleshooting</t>
+    <t>EV3-Dev + RobotC Troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -675,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -813,17 +810,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -1654,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1691,7 +1698,7 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
@@ -1700,7 +1707,7 @@
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="55">
         <v>2</v>
       </c>
     </row>
@@ -1711,8 +1718,8 @@
       <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
+      <c r="D8" s="52">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -1720,9 +1727,9 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8">
+        <v>25</v>
+      </c>
+      <c r="D9" s="56">
         <v>2</v>
       </c>
     </row>
@@ -1731,9 +1738,9 @@
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="56">
         <v>3</v>
       </c>
     </row>
@@ -1742,9 +1749,9 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8">
+        <v>27</v>
+      </c>
+      <c r="D11" s="56">
         <v>2</v>
       </c>
     </row>
@@ -1753,9 +1760,9 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8">
+        <v>28</v>
+      </c>
+      <c r="D12" s="56">
         <v>2</v>
       </c>
     </row>
@@ -1764,9 +1771,9 @@
         <v>18</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8">
+        <v>30</v>
+      </c>
+      <c r="D13" s="56">
         <v>5</v>
       </c>
     </row>
@@ -1774,11 +1781,11 @@
       <c r="B14" s="6">
         <v>19</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>25</v>
+      <c r="C14" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="53">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
@@ -1786,35 +1793,35 @@
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="55"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
@@ -1822,7 +1829,7 @@
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="6_{07966A21-D58C-4113-B183-F3A4EF288D1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{A44B93A7-8A34-4FFA-8112-0D950D5A80A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB182BD3-D0BB-45E1-ACF3-9C4BE49B3AE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>EV3-Dev + RobotC Troubleshooting</t>
+  </si>
+  <si>
+    <t>SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,7 +853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1152,22 +1155,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1178,12 +1181,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1249,56 +1252,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1317,30 +1320,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1351,12 +1354,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1433,55 +1436,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>15.5</v>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>
@@ -1493,30 +1500,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1527,12 +1534,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1576,14 +1583,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1594,56 +1601,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1661,30 +1668,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1695,12 +1702,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1722,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1744,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1766,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
@@ -1788,42 +1795,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="55"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="55"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="55"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="57"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="58"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB182BD3-D0BB-45E1-ACF3-9C4BE49B3AE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{8E273E19-A6BB-4FE6-9E49-C223C21CB824}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{A24B9BC7-7ECC-4C18-B1F5-5B171547393E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting</t>
+  </si>
+  <si>
+    <t>C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3 einrichten, Bluetooth-EV3 Troubleshooting, Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -853,7 +856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1155,22 +1158,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1181,12 +1184,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1252,56 +1255,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1320,30 +1323,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1354,12 +1357,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="42"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1436,14 +1439,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
@@ -1454,35 +1457,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1504,26 +1507,26 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1534,12 +1537,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1583,14 +1586,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1601,56 +1604,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="45">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>20</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="47"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1668,30 +1671,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1702,12 +1705,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
@@ -1795,48 +1798,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="55"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="55"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="57"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="50">
         <v>24</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="58"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23">
         <f>SUM(D6:D21)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{8E273E19-A6BB-4FE6-9E49-C223C21CB824}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{A24B9BC7-7ECC-4C18-B1F5-5B171547393E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5DE555C-E3A0-499D-812E-041D26AF090E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -126,10 +126,17 @@
     <t>EV3-Dev + RobotC Troubleshooting</t>
   </si>
   <si>
-    <t>SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting</t>
-  </si>
-  <si>
     <t>C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3 einrichten, Bluetooth-EV3 Troubleshooting, Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# Code Troubleshooting und angepasst, Erste Fahrtests, Befehlsaufzeichnungen gestartet, Befehlstest mit Roboter
+</t>
+  </si>
+  <si>
+    <t>Dienstag: SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting Donnerstag: C# Code Troubleshooting und angepasst, Erste Fahrtests, Befehlsaufzeichnungen gestartet, Befehlstest mit Roboter</t>
+  </si>
+  <si>
+    <t>Dokumentationsaufbereitung, Statusreport</t>
   </si>
 </sst>
 </file>
@@ -678,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,9 +795,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,7 +844,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -856,7 +860,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1154,26 +1158,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="1"/>
+    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1184,12 +1188,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1233,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1255,62 +1259,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1327,26 +1335,26 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1357,12 +1365,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1439,59 +1447,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -1503,30 +1511,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1537,12 +1545,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1553,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1564,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1586,80 +1594,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="44">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="47"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="46"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1671,30 +1683,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1705,139 +1717,139 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="53"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="55">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="55">
+        <v>32</v>
+      </c>
+      <c r="D15" s="54">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="57"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="50">
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="49">
         <v>24</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="58"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="42"/>
+      <c r="D19" s="57"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5DE555C-E3A0-499D-812E-041D26AF090E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="102_{5415BB42-CEBF-4902-8F24-C6F3B03A1BA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{6EFF1514-9320-4656-843B-FBB7B662F7FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -137,12 +137,18 @@
   </si>
   <si>
     <t>Dokumentationsaufbereitung, Statusreport</t>
+  </si>
+  <si>
+    <t>C#-Anwendung erweitert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,28 +829,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,7 +864,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1158,26 +1162,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1188,12 +1192,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1259,21 +1263,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>20</v>
       </c>
@@ -1284,35 +1288,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>22</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1335,26 +1339,26 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1365,12 +1369,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="41"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1447,14 +1451,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
@@ -1465,35 +1469,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1515,26 +1519,26 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1545,12 +1549,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1594,14 +1598,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1612,21 +1616,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="44">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>20</v>
       </c>
@@ -1637,35 +1641,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="46"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1683,30 +1687,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1717,145 +1721,149 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="53"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>18</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="54">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="54"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="53"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="54"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="49">
         <v>24</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="57"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="51">
         <f>SUM(D6:D21)</f>
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{8E273E19-A6BB-4FE6-9E49-C223C21CB824}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{A24B9BC7-7ECC-4C18-B1F5-5B171547393E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="102_{5415BB42-CEBF-4902-8F24-C6F3B03A1BA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{6EFF1514-9320-4656-843B-FBB7B662F7FE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -126,16 +126,29 @@
     <t>EV3-Dev + RobotC Troubleshooting</t>
   </si>
   <si>
-    <t>SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting</t>
-  </si>
-  <si>
     <t>C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3 einrichten, Bluetooth-EV3 Troubleshooting, Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# Code Troubleshooting und angepasst, Erste Fahrtests, Befehlsaufzeichnungen gestartet, Befehlstest mit Roboter
+</t>
+  </si>
+  <si>
+    <t>Dienstag: SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting Donnerstag: C# Code Troubleshooting und angepasst, Erste Fahrtests, Befehlsaufzeichnungen gestartet, Befehlstest mit Roboter</t>
+  </si>
+  <si>
+    <t>Dokumentationsaufbereitung, Statusreport</t>
+  </si>
+  <si>
+    <t>C#-Anwendung erweitert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,9 +801,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -819,23 +829,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1163,7 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,12 +1277,16 @@
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>20</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
@@ -1310,7 +1322,7 @@
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1371,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -1446,22 +1458,22 @@
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -1491,7 +1503,7 @@
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -1503,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,7 +1609,7 @@
       <c r="B12" s="22">
         <v>17</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="25">
@@ -1612,18 +1624,22 @@
       <c r="D13" s="27"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="45">
+      <c r="B14" s="44">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="22">
         <v>20</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="45">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="22">
@@ -1643,15 +1659,15 @@
       <c r="B18" s="26">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C24" s="37" t="s">
@@ -1659,7 +1675,7 @@
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1671,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1708,7 +1724,7 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="54"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
@@ -1717,7 +1733,7 @@
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>2</v>
       </c>
     </row>
@@ -1728,7 +1744,7 @@
       <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="53">
         <v>3</v>
       </c>
     </row>
@@ -1739,7 +1755,7 @@
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>2</v>
       </c>
     </row>
@@ -1750,7 +1766,7 @@
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>3</v>
       </c>
     </row>
@@ -1761,7 +1777,7 @@
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>2</v>
       </c>
     </row>
@@ -1772,7 +1788,7 @@
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>2</v>
       </c>
     </row>
@@ -1783,7 +1799,7 @@
       <c r="C13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="54">
         <v>5</v>
       </c>
     </row>
@@ -1791,10 +1807,10 @@
       <c r="B14" s="6">
         <v>19</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="55">
         <v>5</v>
       </c>
     </row>
@@ -1803,9 +1819,9 @@
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="55">
+        <v>32</v>
+      </c>
+      <c r="D15" s="53">
         <v>5</v>
       </c>
     </row>
@@ -1814,36 +1830,40 @@
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="55"/>
+      <c r="D16" s="53"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>22</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="57"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>24</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="51">
         <f>SUM(D6:D21)</f>
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\OneDrive - FH Technikum Wien\BIF 2\ITPS - IT Projektarbeit 2\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="102_{5415BB42-CEBF-4902-8F24-C6F3B03A1BA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{6EFF1514-9320-4656-843B-FBB7B662F7FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E073213-84E6-436D-8B35-417E64199769}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>C#-Anwendung erweitert</t>
+  </si>
+  <si>
+    <t>Lambdafunktion auf Skill angepasst und geschrieben</t>
+  </si>
+  <si>
+    <t>In Lambda eingelesen</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,7 +870,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1162,26 +1168,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="1"/>
+    <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1192,12 +1198,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1263,21 +1269,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>20</v>
       </c>
@@ -1288,41 +1294,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>21</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>22</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1335,30 +1349,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1369,12 +1383,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="41"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1385,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1396,7 +1410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1407,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1440,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1451,14 +1465,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
@@ -1469,35 +1483,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
@@ -1515,30 +1529,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1549,12 +1563,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1576,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1587,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1598,14 +1612,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1616,21 +1630,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="44">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>20</v>
       </c>
@@ -1641,35 +1655,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>22</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="46"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
@@ -1687,30 +1701,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1721,12 +1735,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1737,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1748,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1759,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1770,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1781,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1792,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>19</v>
       </c>
@@ -1814,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>20</v>
       </c>
@@ -1825,14 +1839,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="53"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>22</v>
       </c>
@@ -1843,21 +1857,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="49">
         <v>24</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="57"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>11</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick-LAPTOP\Google Drive\[Schule]\FH\[Lehrveranstaltungen]\SS18\ITPS\Alexa &amp; LEGO\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E073213-84E6-436D-8B35-417E64199769}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C62A6B3E-AC7B-4F3D-9325-05F36E1E4A25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -139,13 +139,16 @@
     <t>Dokumentationsaufbereitung, Statusreport</t>
   </si>
   <si>
-    <t>C#-Anwendung erweitert</t>
-  </si>
-  <si>
-    <t>Lambdafunktion auf Skill angepasst und geschrieben</t>
-  </si>
-  <si>
     <t>In Lambda eingelesen</t>
+  </si>
+  <si>
+    <t>Lambdafunktion auf Skill angepasst und geschrieben, Präsentationsvorbereitung und Dokumentierabsprache</t>
+  </si>
+  <si>
+    <t>Präsentationsvorbereitung und Dokumentierabsprache</t>
+  </si>
+  <si>
+    <t>C#-Anwendung erweitert, Präsentationsvorbereitung und Dokumentierabsprache</t>
   </si>
 </sst>
 </file>
@@ -1168,26 +1171,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1198,12 +1201,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>12</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>13</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>14</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>15</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>17</v>
       </c>
@@ -1269,21 +1272,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>18</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>19</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>20</v>
       </c>
@@ -1294,18 +1297,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>22</v>
       </c>
@@ -1313,30 +1316,30 @@
         <v>37</v>
       </c>
       <c r="D16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>23</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>24</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D6:D21)</f>
-        <v>30</v>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
@@ -1349,30 +1352,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1383,12 +1386,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="41"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1465,14 +1468,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
@@ -1483,41 +1486,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>23</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>24</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D7:D21)</f>
-        <v>22.5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1530,29 +1537,29 @@
   <dimension ref="B3:D24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1563,12 +1570,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>12</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>13</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>14</v>
       </c>
@@ -1601,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>15</v>
       </c>
@@ -1612,14 +1619,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>17</v>
       </c>
@@ -1630,21 +1637,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>18</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="44">
         <v>19</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>20</v>
       </c>
@@ -1655,41 +1662,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>22</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="26">
         <v>23</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>24</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="46"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D7:D19)</f>
-        <v>16</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -1701,30 +1712,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1735,12 +1746,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>12</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
@@ -1762,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>14</v>
       </c>
@@ -1773,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>15</v>
       </c>
@@ -1784,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>17</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>18</v>
       </c>
@@ -1817,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>19</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>20</v>
       </c>
@@ -1839,45 +1850,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="53"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>22</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" s="53">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="56"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="49">
         <v>24</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="57"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="51">
         <f>SUM(D6:D21)</f>
-        <v>30.5</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C62A6B3E-AC7B-4F3D-9325-05F36E1E4A25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="5_{80085711-82B1-4FEA-B396-94E013093121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{2E4E26C2-2991-4925-85A8-4415CBD7D48B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -61,91 +61,94 @@
   </si>
   <si>
     <t>Dokumentation Skills-Anleitung</t>
-  </si>
-  <si>
-    <t>SUMME:</t>
-  </si>
-  <si>
-    <t>Protokoll - Dittmann</t>
-  </si>
-  <si>
-    <t>Stundenanzahl</t>
-  </si>
-  <si>
-    <t>Recherche, Konstruktion</t>
-  </si>
-  <si>
-    <t>Besprechung zur Implementierung v. Skills, Recherche</t>
-  </si>
-  <si>
-    <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
-  </si>
-  <si>
-    <t>Dokumentation AWS</t>
-  </si>
-  <si>
-    <t>Protokoll - Potesil</t>
-  </si>
-  <si>
-    <t>Protokollierung, Recherche</t>
-  </si>
-  <si>
-    <t>Protokollierung, Erstellung Protokoll, Besprechung zur Implementierung v. Skills</t>
-  </si>
-  <si>
-    <t>Recherce nach einer geeigneten Programmierumgebung und Implementation für EV3</t>
-  </si>
-  <si>
-    <t>Aufbesserung der Dokumente</t>
-  </si>
-  <si>
-    <t>Protokoll - Klaassen</t>
-  </si>
-  <si>
-    <t>Recherche AWS, Konstruktion</t>
-  </si>
-  <si>
-    <t>Besprechung zur Implementierung v. Skills</t>
-  </si>
-  <si>
-    <t>Recherche EV3-Programmierung</t>
-  </si>
-  <si>
-    <t>Erstellung erstes EV3-Programm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche EV3-Dev </t>
-  </si>
-  <si>
-    <t>Review - Ouroboros</t>
-  </si>
-  <si>
-    <t>Peer Review + EV3-Dev installation</t>
-  </si>
-  <si>
-    <t>EV3-Dev + RobotC Troubleshooting</t>
-  </si>
-  <si>
-    <t>C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3 einrichten, Bluetooth-EV3 Troubleshooting, Dokumentation</t>
   </si>
   <si>
     <t xml:space="preserve">C# Code Troubleshooting und angepasst, Erste Fahrtests, Befehlsaufzeichnungen gestartet, Befehlstest mit Roboter
 </t>
   </si>
   <si>
+    <t>In Lambda eingelesen</t>
+  </si>
+  <si>
+    <t>Lambdafunktion auf Skill angepasst und geschrieben, Präsentationsvorbereitung und Dokumentierabsprache</t>
+  </si>
+  <si>
+    <t>SUMME:</t>
+  </si>
+  <si>
+    <t>Protokoll - Dittmann</t>
+  </si>
+  <si>
+    <t>Stundenanzahl</t>
+  </si>
+  <si>
+    <t>Recherche, Konstruktion</t>
+  </si>
+  <si>
+    <t>Besprechung zur Implementierung v. Skills, Recherche</t>
+  </si>
+  <si>
+    <t>Erweiterung AWS und Amazon Dev nach Anleitung</t>
+  </si>
+  <si>
+    <t>Dokumentation AWS</t>
+  </si>
+  <si>
+    <t>Review - Ouroboros</t>
+  </si>
+  <si>
     <t>Dienstag: SNS / SQS (Amazon Message-Queue Services) Einrichten, Troubleshooting C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3, Bluetooth-EV3 Troubleshooting Donnerstag: C# Code Troubleshooting und angepasst, Erste Fahrtests, Befehlsaufzeichnungen gestartet, Befehlstest mit Roboter</t>
   </si>
   <si>
+    <t>Präsentationsvorbereitung und Dokumentierabsprache</t>
+  </si>
+  <si>
+    <t>Protokoll - Potesil</t>
+  </si>
+  <si>
+    <t>Protokollierung, Recherche</t>
+  </si>
+  <si>
+    <t>Protokollierung, Erstellung Protokoll, Besprechung zur Implementierung v. Skills</t>
+  </si>
+  <si>
+    <t>Recherce nach einer geeigneten Programmierumgebung und Implementation für EV3</t>
+  </si>
+  <si>
+    <t>Aufbesserung der Dokumente</t>
+  </si>
+  <si>
+    <t>Vorbereitung Metareview</t>
+  </si>
+  <si>
     <t>Dokumentationsaufbereitung, Statusreport</t>
   </si>
   <si>
-    <t>In Lambda eingelesen</t>
-  </si>
-  <si>
-    <t>Lambdafunktion auf Skill angepasst und geschrieben, Präsentationsvorbereitung und Dokumentierabsprache</t>
-  </si>
-  <si>
-    <t>Präsentationsvorbereitung und Dokumentierabsprache</t>
+    <t>Protokoll - Klaassen</t>
+  </si>
+  <si>
+    <t>Recherche AWS, Konstruktion</t>
+  </si>
+  <si>
+    <t>Besprechung zur Implementierung v. Skills</t>
+  </si>
+  <si>
+    <t>Recherche EV3-Programmierung</t>
+  </si>
+  <si>
+    <t>Erstellung erstes EV3-Programm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche EV3-Dev </t>
+  </si>
+  <si>
+    <t>Peer Review + EV3-Dev installation</t>
+  </si>
+  <si>
+    <t>EV3-Dev + RobotC Troubleshooting</t>
+  </si>
+  <si>
+    <t>C#-Desktop-Anwendung zur Nachrichtenübertragung an EV3 einrichten, Bluetooth-EV3 Troubleshooting, Dokumentation</t>
   </si>
   <si>
     <t>C#-Anwendung erweitert, Präsentationsvorbereitung und Dokumentierabsprache</t>
@@ -158,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,14 +703,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,7 +791,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,7 +800,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -835,7 +837,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -873,7 +875,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1171,11 +1173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1184,160 +1186,159 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:4">
+      <c r="B7" s="5">
         <v>13</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="2:4" ht="30">
+      <c r="B8" s="5">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="5">
         <v>15</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="5">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+    <row r="11" spans="2:4">
+      <c r="B11" s="5">
         <v>17</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="32">
+    <row r="12" spans="2:4">
+      <c r="B12" s="31">
         <v>18</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="32">
+      <c r="C12" s="33"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="31">
         <v>19</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="C13" s="33"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="2:4" ht="60">
+      <c r="B14" s="5">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+    <row r="15" spans="2:4">
+      <c r="B15" s="5">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+    <row r="16" spans="2:4" ht="69" customHeight="1">
+      <c r="B16" s="5">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+    <row r="17" spans="2:4">
+      <c r="B17" s="5">
         <v>23</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="8">
         <v>24</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="37">
         <f>SUM(D6:D21)</f>
         <v>32.5</v>
       </c>
@@ -1352,177 +1353,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="5">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>13</v>
-      </c>
-      <c r="C8" s="16" t="s">
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="2:4" ht="150">
+      <c r="B15" s="5">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30">
+      <c r="B16" s="5">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>15</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>16</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>18</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>20</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>21</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>23</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <f>SUM(D7:D21)</f>
         <v>25</v>
       </c>
@@ -1536,171 +1537,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
+    <row r="6" spans="2:4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="21">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
+    <row r="8" spans="2:4">
+      <c r="B8" s="21">
         <v>13</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="45">
+      <c r="B9" s="21">
+        <v>14</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45">
+      <c r="B10" s="21">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="21">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="21">
+        <v>17</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="21">
+        <v>18</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="43">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30">
+      <c r="B15" s="21">
+        <v>20</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="21">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="2:4" ht="30">
+      <c r="B17" s="21">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="25">
+        <v>23</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27">
+        <v>24</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="22">
-        <v>17</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
-        <v>18</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="44">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
-        <v>20</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
-        <v>22</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="23">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
-        <v>23</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
-        <v>24</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="46"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="39">
+      <c r="D24" s="38">
         <f>SUM(D7:D19)</f>
-        <v>18.5</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
@@ -1712,181 +1721,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="52">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="2:4">
+      <c r="B8" s="5">
         <v>13</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5">
+        <v>18</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5">
+        <v>19</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="60">
+      <c r="B15" s="5">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="2:4" ht="45">
+      <c r="B17" s="5">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="31">
+        <v>23</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="48">
         <v>24</v>
       </c>
-      <c r="D8" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="C19" s="41"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>18</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>19</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>20</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>21</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>22</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="32">
-        <v>23</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="49">
-        <v>24</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="57"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="51">
+      <c r="D23" s="50">
         <f>SUM(D6:D21)</f>
         <v>33</v>
       </c>

--- a/Protokolle/Stundentafel.xlsx
+++ b/Protokolle/Stundentafel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\OneDrive - FH Technikum Wien\2SEM\ITP-Alexa-Pen\Protokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="5_{80085711-82B1-4FEA-B396-94E013093121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{2E4E26C2-2991-4925-85A8-4415CBD7D48B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="5_{80085711-82B1-4FEA-B396-94E013093121}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{C7FBFDC3-8809-42F1-84EA-285FF271315B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Protokoll - LOH</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>C#-Anwendung erweitert, Präsentationsvorbereitung und Dokumentierabsprache</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -856,6 +859,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,7 +881,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1173,11 +1179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -1186,13 +1192,13 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1203,11 +1209,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>12</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>13</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>14</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>15</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>17</v>
       </c>
@@ -1273,21 +1279,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="31">
         <v>18</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>19</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="2:4" ht="60">
+    <row r="14" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>20</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>21</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="69" customHeight="1">
+    <row r="16" spans="2:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>22</v>
       </c>
@@ -1320,21 +1326,21 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>24</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="34"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="36" t="s">
         <v>14</v>
       </c>
@@ -1353,30 +1359,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08664FD9-0ED2-4C12-9011-D42332A3AFEC}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" xr3:uid="{A7DEBC2E-57E9-5E84-AEB4-F569604DC6BC}">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1387,12 +1393,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="40"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>12</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>13</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>14</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>16</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>17</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>18</v>
       </c>
@@ -1469,14 +1475,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="2:4" ht="150">
+    <row r="15" spans="2:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>20</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>21</v>
       </c>
@@ -1498,34 +1504,42 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4">
+        <v>23</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4">
+        <v>26</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>24</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="37">
         <f>SUM(D7:D21)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1537,30 +1551,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1571,12 +1585,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="1"/>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>12</v>
       </c>
@@ -1587,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>13</v>
       </c>
@@ -1598,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45">
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>14</v>
       </c>
@@ -1609,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>15</v>
       </c>
@@ -1620,14 +1634,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>16</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>17</v>
       </c>
@@ -1638,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>18</v>
       </c>
@@ -1649,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="43">
         <v>19</v>
       </c>
@@ -1660,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>20</v>
       </c>
@@ -1671,14 +1685,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>21</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="2:4" ht="30">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>22</v>
       </c>
@@ -1689,21 +1703,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>23</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="47"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>24</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="36" t="s">
         <v>14</v>
       </c>
@@ -1721,30 +1735,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="30">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1755,12 +1769,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>12</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>13</v>
       </c>
@@ -1782,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>14</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>15</v>
       </c>
@@ -1804,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>16</v>
       </c>
@@ -1815,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>17</v>
       </c>
@@ -1826,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>18</v>
       </c>
@@ -1837,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>19</v>
       </c>
@@ -1848,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="60">
+    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>20</v>
       </c>
@@ -1859,14 +1873,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="52"/>
     </row>
-    <row r="17" spans="2:4" ht="45">
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>22</v>
       </c>
@@ -1877,21 +1891,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="31">
         <v>23</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="55"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="48">
         <v>24</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="56"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
